--- a/biology/Botanique/Centranthus_lecoqii/Centranthus_lecoqii.xlsx
+++ b/biology/Botanique/Centranthus_lecoqii/Centranthus_lecoqii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centranthe de Lecoq
 Centranthus lecoqii, de nom commun Centranthe de Lecoq, est une espèce de plantes à fleurs de la famille des Caprifoliaceae et du genre Centranthus, endémique de l'ouest de la Méditerranée. Elle a été décrite par Alexis Jordan en 1852, et nommée d'après Henri Lecoq.
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La plante mesure de 30 cm à un mètre. Les tiges sont glabres et glauques. Les feuilles lancéolées sont parcourues par des nervures parallèles[2].
-Appareil reproducteur
-Les fleurs, de 8 à 10 mm de diamètre, sont roses, et forment des inflorescences arrondies. L'éperon égale environ l'ovaire. La floraison a lieu de mai à juillet[2].
-Confusions possibles
-C'est une espèce paraissant morphologiquement intermédiaire entre Centranthus angustifolius (elle a été classé par certains auteurs comme une sous-espèce ou une variété de cette espèce) et Centranthus ruber. Elle se distingue de la première par des feuilles plus larges et des entre-nœuds plus courts, et de la deuxième par des feuilles plus étroites et des fleurs plus claires[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante mesure de 30 cm à un mètre. Les tiges sont glabres et glauques. Les feuilles lancéolées sont parcourues par des nervures parallèles.
 </t>
         </is>
       </c>
@@ -545,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On peut rencontrer cette espèce dans les lieux rocailleux, d'une altitude de 100 à 1 800 m[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, de 8 à 10 mm de diamètre, sont roses, et forment des inflorescences arrondies. L'éperon égale environ l'ovaire. La floraison a lieu de mai à juillet.
 </t>
         </is>
       </c>
@@ -576,12 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Centranthe de Lecoq est endémique de l'ouest de la Méditerranée : il pousse naturellement sur la moitié nord-est de l'Espagne, dans le sud de la France, ainsi qu'en Andorre[1],[4]. 
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce paraissant morphologiquement intermédiaire entre Centranthus angustifolius (elle a été classé par certains auteurs comme une sous-espèce ou une variété de cette espèce) et Centranthus ruber. Elle se distingue de la première par des feuilles plus larges et des entre-nœuds plus courts, et de la deuxième par des feuilles plus étroites et des fleurs plus claires.
 </t>
         </is>
       </c>
@@ -607,12 +632,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut rencontrer cette espèce dans les lieux rocailleux, d'une altitude de 100 à 1 800 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centranthus_lecoqii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centranthus_lecoqii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centranthe de Lecoq est endémique de l'ouest de la Méditerranée : il pousse naturellement sur la moitié nord-est de l'Espagne, dans le sud de la France, ainsi qu'en Andorre,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centranthus_lecoqii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centranthus_lecoqii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est en « préoccupation mineure » (LC) à l'échelle de la France, mais est classée « en danger critique d'extinction » (CR) sur la Liste rouge de la flore vasculaire d'Aquitaine (2018)[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est en « préoccupation mineure » (LC) à l'échelle de la France, mais est classée « en danger critique d'extinction » (CR) sur la Liste rouge de la flore vasculaire d'Aquitaine (2018).
 </t>
         </is>
       </c>
